--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFB213B-C3D3-417A-94AA-D7F821DE0934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568161D-8BE4-46B4-B059-78AE9E937DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>shivangi@startupsahay.com</t>
-  </si>
-  <si>
     <t>sales</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Banti</t>
   </si>
   <si>
-    <t>nimesh@incscale.in</t>
-  </si>
-  <si>
     <t>Business Development Manager</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>mr.vaibhav acharya</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>mohan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,19 +563,19 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
       <c r="J2">
         <v>9669066607</v>
@@ -589,28 +589,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
       <c r="J3">
         <v>9669066607</v>

--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568161D-8BE4-46B4-B059-78AE9E937DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C37E1F-F04C-4267-B1B7-F78566BE1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -107,10 +107,31 @@
     <t>mr.vaibhav acharya</t>
   </si>
   <si>
-    <t>john@gmail.com</t>
-  </si>
-  <si>
-    <t>mohan@gmail.com</t>
+    <t>shivangi@startupsahay.com</t>
+  </si>
+  <si>
+    <t>nimesh@incscale.in</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Ramvtar</t>
+  </si>
+  <si>
+    <t>Desai</t>
+  </si>
+  <si>
+    <t>priya@startupsahay.com</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Mr.Vishal Gohel</t>
   </si>
 </sst>
 </file>
@@ -494,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DDC525-9B5F-420A-BAD7-CF14860558C3}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,10 +640,82 @@
         <v>45606</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>9669066607</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>9669066607</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45606</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F22E1311-2BE8-49A9-999D-702F0EEBA8FE}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{A38E61B1-E450-423B-AAF1-BE688134BFAB}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{AEF4829F-BE2F-40A7-B982-C2FB7161DBB1}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{C8E22066-83C2-4DB3-A699-0EFD454818D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C37E1F-F04C-4267-B1B7-F78566BE1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC309BA-32D4-49E9-A8EE-7B4730EFB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>S.No</t>
   </si>
@@ -71,27 +71,15 @@
     <t>Joining Date</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>Doe</t>
   </si>
   <si>
-    <t>sales</t>
-  </si>
-  <si>
     <t>Business Development Executive</t>
   </si>
   <si>
-    <t>gota</t>
-  </si>
-  <si>
-    <t>mr.vishal gohel</t>
-  </si>
-  <si>
     <t>Mohan</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t>Business Development Manager</t>
   </si>
   <si>
-    <t>sindhu bhawan</t>
-  </si>
-  <si>
-    <t>mr.vaibhav acharya</t>
-  </si>
-  <si>
     <t>shivangi@startupsahay.com</t>
   </si>
   <si>
@@ -131,7 +113,37 @@
     <t>Graphic Designer</t>
   </si>
   <si>
-    <t>Mr.Vishal Gohel</t>
+    <t xml:space="preserve">Milan </t>
+  </si>
+  <si>
+    <t>Milam</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>kajal@startuosahay.com</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Gota</t>
+  </si>
+  <si>
+    <t>Sindhu Bhawan</t>
+  </si>
+  <si>
+    <t>Mr. Vishal Gohel</t>
+  </si>
+  <si>
+    <t>Mr. Nimesh Parekh</t>
+  </si>
+  <si>
+    <t>Mr. Vaibhav Acharya</t>
+  </si>
+  <si>
+    <t>Sindhu bhawan</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,28 +587,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>9669066607</v>
@@ -610,28 +622,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>9669066607</v>
@@ -645,28 +657,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>9669066607</v>
@@ -680,28 +692,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>9669066607</v>
@@ -712,10 +724,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F22E1311-2BE8-49A9-999D-702F0EEBA8FE}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{A38E61B1-E450-423B-AAF1-BE688134BFAB}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{AEF4829F-BE2F-40A7-B982-C2FB7161DBB1}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{C8E22066-83C2-4DB3-A699-0EFD454818D1}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{AEF4829F-BE2F-40A7-B982-C2FB7161DBB1}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{C8E22066-83C2-4DB3-A699-0EFD454818D1}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A38E61B1-E450-423B-AAF1-BE688134BFAB}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{F22E1311-2BE8-49A9-999D-702F0EEBA8FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC309BA-32D4-49E9-A8EE-7B4730EFB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5BC309BA-32D4-49E9-A8EE-7B4730EFB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F6B435-2357-438E-9789-7D9E453A41D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Sindhu bhawan</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -527,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DDC525-9B5F-420A-BAD7-CF14860558C3}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +559,7 @@
     <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +593,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,8 +634,14 @@
       <c r="K2" s="2">
         <v>45566</v>
       </c>
+      <c r="L2">
+        <v>10000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,8 +675,14 @@
       <c r="K3" s="2">
         <v>45606</v>
       </c>
+      <c r="L3">
+        <v>25000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -686,8 +716,14 @@
       <c r="K4" s="2">
         <v>45572</v>
       </c>
+      <c r="L4">
+        <v>25000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -720,6 +756,12 @@
       </c>
       <c r="K5" s="2">
         <v>45606</v>
+      </c>
+      <c r="L5">
+        <v>30000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5BC309BA-32D4-49E9-A8EE-7B4730EFB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F6B435-2357-438E-9789-7D9E453A41D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922416F2-893B-4FD5-B59E-7A4ABA40D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Mr. Vaibhav Acharya</t>
-  </si>
-  <si>
-    <t>Sindhu bhawan</t>
   </si>
   <si>
     <t>Salary</t>
@@ -542,7 +539,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -638,7 +635,7 @@
         <v>10000</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -679,7 +676,7 @@
         <v>25000</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -720,7 +717,7 @@
         <v>25000</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -746,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
@@ -761,7 +758,7 @@
         <v>30000</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/AddNewEmployeeFormat.xlsx
+++ b/frontend/public/AddNewEmployeeFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922416F2-893B-4FD5-B59E-7A4ABA40D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{922416F2-893B-4FD5-B59E-7A4ABA40D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56143017-C1C7-4BF3-9E94-22A22CA595D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF3BFE26-5A70-410A-9D88-95C96A0DDE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -80,51 +80,15 @@
     <t>Business Development Executive</t>
   </si>
   <si>
-    <t>Mohan</t>
-  </si>
-  <si>
     <t>Banti</t>
   </si>
   <si>
-    <t>Business Development Manager</t>
-  </si>
-  <si>
-    <t>shivangi@startupsahay.com</t>
-  </si>
-  <si>
-    <t>nimesh@incscale.in</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
     <t>Ramvtar</t>
   </si>
   <si>
     <t>Desai</t>
   </si>
   <si>
-    <t>priya@startupsahay.com</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Graphic Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milan </t>
-  </si>
-  <si>
-    <t>Milam</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>kajal@startuosahay.com</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -137,12 +101,6 @@
     <t>Mr. Vishal Gohel</t>
   </si>
   <si>
-    <t>Mr. Nimesh Parekh</t>
-  </si>
-  <si>
-    <t>Mr. Vaibhav Acharya</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -153,6 +111,30 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Dummy5</t>
+  </si>
+  <si>
+    <t>dummy5@gmail.com</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>Mr. Krunal Pithadia</t>
+  </si>
+  <si>
+    <t>Dummy6</t>
+  </si>
+  <si>
+    <t>Dummy7</t>
+  </si>
+  <si>
+    <t>dummy6@gmail.com</t>
+  </si>
+  <si>
+    <t>dummy7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -217,6 +199,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DDC525-9B5F-420A-BAD7-CF14860558C3}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -611,19 +597,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>9669066607</v>
@@ -635,7 +621,7 @@
         <v>10000</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -643,28 +629,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>9669066607</v>
@@ -676,7 +662,7 @@
         <v>25000</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -684,28 +670,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
       </c>
       <c r="J4">
         <v>9669066607</v>
@@ -717,56 +703,14 @@
         <v>25000</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5">
-        <v>9669066607</v>
-      </c>
-      <c r="K5" s="2">
-        <v>45606</v>
-      </c>
-      <c r="L5">
-        <v>30000</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{AEF4829F-BE2F-40A7-B982-C2FB7161DBB1}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{C8E22066-83C2-4DB3-A699-0EFD454818D1}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{A38E61B1-E450-423B-AAF1-BE688134BFAB}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{F22E1311-2BE8-49A9-999D-702F0EEBA8FE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A38E61B1-E450-423B-AAF1-BE688134BFAB}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{F22E1311-2BE8-49A9-999D-702F0EEBA8FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
